--- a/output/condition/田中希湖_condition.xlsx
+++ b/output/condition/田中希湖_condition.xlsx
@@ -1,147 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
-  <si>
-    <t>レポート年</t>
-  </si>
-  <si>
-    <t>レポート月</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>心拍数</t>
-  </si>
-  <si>
-    <t>体温</t>
-  </si>
-  <si>
-    <t>SPO2</t>
-  </si>
-  <si>
-    <t>体調 [疲労感]</t>
-  </si>
-  <si>
-    <t>体調 [倦怠感]</t>
-  </si>
-  <si>
-    <t>体調 [食欲]</t>
-  </si>
-  <si>
-    <t>体調 [今の体調]</t>
-  </si>
-  <si>
-    <t>体調 [意欲]</t>
-  </si>
-  <si>
-    <t>ケガなど [首の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [肩の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [背中の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [腰の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [下腿部の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [足部の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [その他]</t>
-  </si>
-  <si>
-    <t>上記で「その他」と回答した場合に記載</t>
-  </si>
-  <si>
-    <t>2020年度</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>田中希湖</t>
-  </si>
-  <si>
-    <t>手首を痛めた</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,781 +420,921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>レポート年</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>レポート月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>心拍数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>体温</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SPO2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [疲労感]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [倦怠感]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [食欲]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [今の体調]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [意欲]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [首の痛み]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [肩の痛み]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [背中の痛み]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [腰の痛み]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [下腿部の痛み]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [足部の痛み]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [その他]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>上記で「その他」と回答した場合に記載</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>133</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>35.96309972485732</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>97.39321538362174</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>1.082624024644129</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>4.336538335239811</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>1.704802319390584</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>2.310248232453655</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>9.693486627907451</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>7.666524049055564</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>5.921662673283998</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>6.445212460338094</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>4.322525949555397</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>3.815481224664654</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>8.423840785336491</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>3.65546871331264</v>
       </c>
-      <c r="S2" t="s">
-        <v>33</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>146</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>37.3699975838012</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>95.64978086238209</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>9.078602712586436</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>8.752190191243276</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>4.767954249433106</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>8.187738558582399</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>8.251271183706477</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>3.508234510438952</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>8.151339032279704</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>2.8875193705365</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>7.199622115451444</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>4.935147707582354</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>3.299639444196417</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>5.668636941783944</v>
       </c>
-      <c r="S3" t="s">
-        <v>33</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>141</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>36.59746670008938</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>98.39246124398021</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>5.032574364129786</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>3.276912477102623</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>9.867016075538201</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>1.063378947693007</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>7.436661884911304</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>8.80455735553778</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>1.638930173354263</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>3.334587810106711</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>6.600723467039154</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>5.188371454825409</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>6.119235557490435</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>9.694638873421477</v>
       </c>
-      <c r="S4" t="s">
-        <v>33</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4月</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>140</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>36.98854894657552</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>95.94496844424356</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>7.301433157654516</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>9.885919334414774</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>7.676789506737703</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>3.16985056204054</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>4.795912252463792</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>6.421801324712172</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>9.807252903671396</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>1.026695621438908</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>3.713632131686047</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>2.561309621340084</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>2.056080859386555</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>7.234610046217373</v>
       </c>
-      <c r="S5" t="s">
-        <v>33</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>150</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>36.17198941166487</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>97.3059279345491</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>4.668777125700897</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>2.623080206530783</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>1.859799943331801</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>7.663808753149808</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>6.304649999769016</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>7.456733828540095</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>5.439964465038105</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>7.922889560300302</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>7.576863773943853</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>7.859929285301402</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>7.460410561150545</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>6.790196806959159</v>
       </c>
-      <c r="S6" t="s">
-        <v>33</v>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>130</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>36.80150866036583</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>98.57659294891333</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>3.144003381794856</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>4.82307457288992</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>6.204592608181821</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>4.92524054700187</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>5.88711396290204</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>7.563069587943273</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>2.718119338495205</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>7.41519669622679</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>4.548955334907706</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>8.428172297854612</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>3.200971727780512</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>7.295630350712923</v>
       </c>
-      <c r="S7" t="s">
-        <v>33</v>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>141</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>36.59943989579111</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>95.35316215714003</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>8.845280505502201</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>9.923841982211442</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>5.125673220754631</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>2.512871975287227</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>1.103473466079485</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>8.395642772137348</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>7.878383310227674</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>7.387844841764893</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>3.269587648987951</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>5.142895702250805</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>7.70854432417131</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>8.533371605649632</v>
       </c>
-      <c r="S8" t="s">
-        <v>33</v>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>145</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>36.22221401981528</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>97.12899283902718</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>8.309728615765104</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>2.723789677794769</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>4.031558642953605</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>7.080590143362556</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>4.91145938794791</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>6.470374358450083</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>3.617784589369954</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>6.583836072919201</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>3.156743275042015</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>5.574756924657425</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>2.448206141333253</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>4.282944047563276</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>135</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>37.07989303066766</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>95.68454739847706</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>7.437281582070076</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>5.042616526720474</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>3.937210857452002</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>4.719086180744888</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>2.858420010830519</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>1.063855731101684</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>3.325929874123487</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>4.465461381092091</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>6.305583641281581</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>5.717753659522439</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>7.143607823354917</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>7.376693471269741</v>
       </c>
-      <c r="S10" t="s">
-        <v>33</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>143</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>36.72176079248081</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>95.73204330214689</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>7.362096736356551</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>9.096100975440672</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>4.755553916000967</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>6.691824808656353</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>8.177749753968207</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>9.375486581146564</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>3.139233457443519</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>3.54276527694873</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>5.635699862620915</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>9.354688830686815</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>4.833025783512215</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>1.913971369710527</v>
       </c>
-      <c r="S11" t="s">
-        <v>33</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>141</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>36.55233447086701</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>96.70738240764186</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>1.69279486633082</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>8.065972344352904</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>1.517785793239845</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>6.765898505879775</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>6.201565300912534</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>3.573131476236417</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>8.384166762779174</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>5.372081763406263</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>9.919700165362306</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>2.938964243655391</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>2.203590499533767</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>5.669918153737632</v>
       </c>
-      <c r="S12" t="s">
-        <v>33</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>132</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>37.19506914517951</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>98.34341309667575</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>2.997721138723922</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>2.284172371572049</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>4.526918884533084</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>2.350887882348712</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>7.850502304715279</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>9.361832613129645</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>3.511773982792994</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>9.580811511879048</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>4.791943685599265</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>7.644836064581318</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>1.118778572065333</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>7.079040810448371</v>
       </c>
-      <c r="S13" t="s">
-        <v>33</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>